--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727312b8dea48f75/Desktop/Networking Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{45B24710-38A7-47E2-8B03-834AAC399BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2A9D9D-52E8-48E6-BCBE-42219C5240F7}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{45B24710-38A7-47E2-8B03-834AAC399BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567F3945-AA85-4330-A5E7-7299DB7AC06D}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6BA355BD-DDD2-4404-9155-94115C51A00E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6BA355BD-DDD2-4404-9155-94115C51A00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
   <si>
     <t>IP Address</t>
   </si>
@@ -369,13 +369,76 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Total number of host</t>
+  </si>
+  <si>
+    <t>Addressing table</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Router(default gateway)</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>10.0.4.2</t>
+  </si>
+  <si>
+    <t>10.0.8.2</t>
+  </si>
+  <si>
+    <t>10.0.12.2</t>
+  </si>
+  <si>
+    <t>10.0..16.2</t>
+  </si>
+  <si>
+    <t>10.0.20.2</t>
+  </si>
+  <si>
+    <t>10.0.24.2</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>10.0.16.3</t>
+  </si>
+  <si>
+    <t>10.0.16.4</t>
+  </si>
+  <si>
+    <t>10.0.16.5</t>
+  </si>
+  <si>
+    <t>10.0.16.6</t>
+  </si>
+  <si>
+    <t>10.0.16.7</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +468,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +493,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,11 +510,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,12 +526,58 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -545,41 +674,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}" name="Table3" displayName="Table3" ref="E22:L29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}" name="Table3" displayName="Table3" ref="E22:L29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="E22:L29" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E23:L29">
     <sortCondition ref="E22:E29"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{768864F6-C59B-4F1C-8C8B-E413D44AC0E4}" name="Subnet" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{CDD8723B-1DCF-4D42-B7D8-E7D614D4471F}" name="Department" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{52AC55C9-7C9B-4A4A-91DD-C1D3FA2738F5}" name="Host Number" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{33750ADA-78F6-4356-9CBE-8CF5E494C00C}" name="Usable host" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{3D686C6C-D2A9-4FFD-B229-25B3C78E93C2}" name="Subnet Address/prefix length" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C7F932E8-C04B-4FF9-8725-EF4B42D891A1}" name="First usable" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{52023083-05F6-473B-8D4C-739036FAE18A}" name="Last usable" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{63CF1C41-EA5C-4F6A-830B-D4557FE50375}" name="Broadcast" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{768864F6-C59B-4F1C-8C8B-E413D44AC0E4}" name="Subnet" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{CDD8723B-1DCF-4D42-B7D8-E7D614D4471F}" name="Department" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{52AC55C9-7C9B-4A4A-91DD-C1D3FA2738F5}" name="Host Number" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{33750ADA-78F6-4356-9CBE-8CF5E494C00C}" name="Usable host" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{3D686C6C-D2A9-4FFD-B229-25B3C78E93C2}" name="Subnet Address/prefix length" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C7F932E8-C04B-4FF9-8725-EF4B42D891A1}" name="First usable" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{52023083-05F6-473B-8D4C-739036FAE18A}" name="Last usable" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{63CF1C41-EA5C-4F6A-830B-D4557FE50375}" name="Broadcast" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}" name="Table35" displayName="Table35" ref="E54:M63" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="E54:M63" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E55:L61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}" name="Table35" displayName="Table35" ref="E51:M60" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="E51:M60" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E52:L58">
     <sortCondition ref="E22:E29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{41338300-CB06-47BB-974C-C0E5FC8C3890}" name="Subnet" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D52DA9D1-89E4-4669-BD2C-5BE297DC6B38}" name="Department" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CDAD48B1-EF00-488A-A1FD-94A8909A9FAD}" name="Host Number" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{529406A6-D56E-4F46-8B2A-AA535773F038}" name="Usable host" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{166CCAE2-CEC4-42B0-8ACF-A6C878587BB8}" name="Subnet Address/prefix length" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{C9928364-8554-4D75-96A1-9A3A1537F13D}" name="First usable" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C4B29CB4-FB3F-42CE-8E6F-253129673604}" name="Last usable" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{EBD01FFA-3E90-4782-8B98-DB02C2B2C2A5}" name="Broadcast" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E93426B7-8503-4D5A-95C0-D19D6B386AD6}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{41338300-CB06-47BB-974C-C0E5FC8C3890}" name="Subnet" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D52DA9D1-89E4-4669-BD2C-5BE297DC6B38}" name="Department" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CDAD48B1-EF00-488A-A1FD-94A8909A9FAD}" name="Host Number" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{529406A6-D56E-4F46-8B2A-AA535773F038}" name="Usable host" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{166CCAE2-CEC4-42B0-8ACF-A6C878587BB8}" name="Subnet Address/prefix length" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C9928364-8554-4D75-96A1-9A3A1537F13D}" name="First usable" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{C4B29CB4-FB3F-42CE-8E6F-253129673604}" name="Last usable" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{EBD01FFA-3E90-4782-8B98-DB02C2B2C2A5}" name="Broadcast" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E93426B7-8503-4D5A-95C0-D19D6B386AD6}" name="Column1" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{524D0A3C-EC68-4AB9-9E70-6F71AA0F2EBB}" name="Table1" displayName="Table1" ref="E66:L73" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="E66:L73" xr:uid="{524D0A3C-EC68-4AB9-9E70-6F71AA0F2EBB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D16B2049-504B-4411-BBF1-FF83A52F018F}" name="Department" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1087286B-5F88-42BA-9EE1-096CC8E4C3CE}" name="Big Data Hub" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{585D3314-1710-4EAA-A01C-802FC8266B3A}" name="Administrative Department" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{34748FFF-00C7-4FA4-B0AC-7CBE0A7DEE9C}" name="Sales Department" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B2B9319E-0439-49C5-8232-47733B4995A9}" name="Customer Service" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6EE0B37F-1C14-487B-8614-C61695C754B4}" name="Research &amp; Development Labs" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5337A956-B5A5-4DD1-913F-C95831F2803B}" name="Cybersecurity" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{0CE4D8A7-D13E-436C-B4B1-3708F338D04F}" name="Gaming Tech" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -902,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF44D9-4CDC-432E-9986-1609DEEDC4F6}">
-  <dimension ref="E1:M61"/>
+  <dimension ref="E1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:M63"/>
+    <sheetView tabSelected="1" topLeftCell="I43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,12 +1059,12 @@
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -937,7 +1083,7 @@
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1">
         <v>512</v>
@@ -982,45 +1128,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>255</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>11111111</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1295,339 +1441,488 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>255</v>
+      </c>
+      <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="F45" s="1">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4">
+        <v>11111111</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>4</v>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>255</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H49" s="3"/>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-      <c r="F50" s="3">
-        <v>11111111</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="I49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
+      <c r="F52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E64" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="J68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="J69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>109</v>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727312b8dea48f75/Desktop/Networking Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{45B24710-38A7-47E2-8B03-834AAC399BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567F3945-AA85-4330-A5E7-7299DB7AC06D}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{45B24710-38A7-47E2-8B03-834AAC399BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2C9806-2144-41C7-BE93-006ACBE5066B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6BA355BD-DDD2-4404-9155-94115C51A00E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6BA355BD-DDD2-4404-9155-94115C51A00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="161">
   <si>
     <t>IP Address</t>
   </si>
@@ -377,15 +377,6 @@
     <t>Addressing table</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Router(default gateway)</t>
-  </si>
-  <si>
     <t>10.0.0.2</t>
   </si>
   <si>
@@ -398,18 +389,12 @@
     <t>10.0.12.2</t>
   </si>
   <si>
-    <t>10.0..16.2</t>
-  </si>
-  <si>
     <t>10.0.20.2</t>
   </si>
   <si>
     <t>10.0.24.2</t>
   </si>
   <si>
-    <t>PC2</t>
-  </si>
-  <si>
     <t>10.0.16.3</t>
   </si>
   <si>
@@ -425,13 +410,115 @@
     <t>10.0.16.7</t>
   </si>
   <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>PC5</t>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>G0/0</t>
+  </si>
+  <si>
+    <t>G1/0</t>
+  </si>
+  <si>
+    <t>G4/0</t>
+  </si>
+  <si>
+    <t>G5/0</t>
+  </si>
+  <si>
+    <t>G6/0</t>
+  </si>
+  <si>
+    <t>G7/0</t>
+  </si>
+  <si>
+    <t>G8/0</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>255.255.252.0</t>
+  </si>
+  <si>
+    <t>PCA2</t>
+  </si>
+  <si>
+    <t>Fa0</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>VLAN1</t>
+  </si>
+  <si>
+    <t>PCA1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Customer Service Department</t>
+  </si>
+  <si>
+    <t>PCAG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>PCB2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PCB1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>PCBG</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Research &amp; Development labs</t>
+  </si>
+  <si>
+    <t>PCR1</t>
+  </si>
+  <si>
+    <t>PCR2</t>
+  </si>
+  <si>
+    <t>PCR3</t>
+  </si>
+  <si>
+    <t>PCR4</t>
+  </si>
+  <si>
+    <t>PCR5</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>10.0.16.2</t>
   </si>
 </sst>
 </file>
@@ -515,7 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,52 +619,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -674,58 +731,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}" name="Table3" displayName="Table3" ref="E22:L29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}" name="Table3" displayName="Table3" ref="E22:L29" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="E22:L29" xr:uid="{E6734439-88E4-4066-ABD5-7BCC9BC867EB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E23:L29">
     <sortCondition ref="E22:E29"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{768864F6-C59B-4F1C-8C8B-E413D44AC0E4}" name="Subnet" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{CDD8723B-1DCF-4D42-B7D8-E7D614D4471F}" name="Department" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{52AC55C9-7C9B-4A4A-91DD-C1D3FA2738F5}" name="Host Number" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{33750ADA-78F6-4356-9CBE-8CF5E494C00C}" name="Usable host" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{3D686C6C-D2A9-4FFD-B229-25B3C78E93C2}" name="Subnet Address/prefix length" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C7F932E8-C04B-4FF9-8725-EF4B42D891A1}" name="First usable" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{52023083-05F6-473B-8D4C-739036FAE18A}" name="Last usable" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{63CF1C41-EA5C-4F6A-830B-D4557FE50375}" name="Broadcast" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{768864F6-C59B-4F1C-8C8B-E413D44AC0E4}" name="Subnet" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{CDD8723B-1DCF-4D42-B7D8-E7D614D4471F}" name="Department" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{52AC55C9-7C9B-4A4A-91DD-C1D3FA2738F5}" name="Host Number" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{33750ADA-78F6-4356-9CBE-8CF5E494C00C}" name="Usable host" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{3D686C6C-D2A9-4FFD-B229-25B3C78E93C2}" name="Subnet Address/prefix length" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C7F932E8-C04B-4FF9-8725-EF4B42D891A1}" name="First usable" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{52023083-05F6-473B-8D4C-739036FAE18A}" name="Last usable" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{63CF1C41-EA5C-4F6A-830B-D4557FE50375}" name="Broadcast" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}" name="Table35" displayName="Table35" ref="E51:M60" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}" name="Table35" displayName="Table35" ref="E51:M60" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="E51:M60" xr:uid="{043D2AFD-0D60-4946-95D5-536331484EB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E52:L58">
     <sortCondition ref="E22:E29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{41338300-CB06-47BB-974C-C0E5FC8C3890}" name="Subnet" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D52DA9D1-89E4-4669-BD2C-5BE297DC6B38}" name="Department" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{CDAD48B1-EF00-488A-A1FD-94A8909A9FAD}" name="Host Number" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{529406A6-D56E-4F46-8B2A-AA535773F038}" name="Usable host" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{166CCAE2-CEC4-42B0-8ACF-A6C878587BB8}" name="Subnet Address/prefix length" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C9928364-8554-4D75-96A1-9A3A1537F13D}" name="First usable" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{C4B29CB4-FB3F-42CE-8E6F-253129673604}" name="Last usable" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{EBD01FFA-3E90-4782-8B98-DB02C2B2C2A5}" name="Broadcast" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{E93426B7-8503-4D5A-95C0-D19D6B386AD6}" name="Column1" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{524D0A3C-EC68-4AB9-9E70-6F71AA0F2EBB}" name="Table1" displayName="Table1" ref="E66:L73" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="E66:L73" xr:uid="{524D0A3C-EC68-4AB9-9E70-6F71AA0F2EBB}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D16B2049-504B-4411-BBF1-FF83A52F018F}" name="Department" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1087286B-5F88-42BA-9EE1-096CC8E4C3CE}" name="Big Data Hub" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{585D3314-1710-4EAA-A01C-802FC8266B3A}" name="Administrative Department" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{34748FFF-00C7-4FA4-B0AC-7CBE0A7DEE9C}" name="Sales Department" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B2B9319E-0439-49C5-8232-47733B4995A9}" name="Customer Service" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6EE0B37F-1C14-487B-8614-C61695C754B4}" name="Research &amp; Development Labs" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5337A956-B5A5-4DD1-913F-C95831F2803B}" name="Cybersecurity" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0CE4D8A7-D13E-436C-B4B1-3708F338D04F}" name="Gaming Tech" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{41338300-CB06-47BB-974C-C0E5FC8C3890}" name="Subnet" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D52DA9D1-89E4-4669-BD2C-5BE297DC6B38}" name="Department" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CDAD48B1-EF00-488A-A1FD-94A8909A9FAD}" name="Host Number" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{529406A6-D56E-4F46-8B2A-AA535773F038}" name="Usable host" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{166CCAE2-CEC4-42B0-8ACF-A6C878587BB8}" name="Subnet Address/prefix length" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C9928364-8554-4D75-96A1-9A3A1537F13D}" name="First usable" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C4B29CB4-FB3F-42CE-8E6F-253129673604}" name="Last usable" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{EBD01FFA-3E90-4782-8B98-DB02C2B2C2A5}" name="Broadcast" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E93426B7-8503-4D5A-95C0-D19D6B386AD6}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,18 +1088,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF44D9-4CDC-432E-9986-1609DEEDC4F6}">
-  <dimension ref="E1:M73"/>
+  <dimension ref="E1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:L73"/>
+    <sheetView tabSelected="1" topLeftCell="H69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" style="1" customWidth="1"/>
@@ -1779,150 +1820,498 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="I68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="s">
-        <v>130</v>
+      <c r="I72" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>131</v>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E75" s="6"/>
+      <c r="F75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="6"/>
+      <c r="F77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E78" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E79" s="6"/>
+      <c r="F79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E80" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81" s="6"/>
+      <c r="F81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83" s="6"/>
+      <c r="F83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="6"/>
+      <c r="F85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E87" s="6"/>
+      <c r="F87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="6"/>
+      <c r="F88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E89" s="6"/>
+      <c r="F89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="6"/>
+      <c r="F90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="6"/>
+      <c r="F91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="F67:F73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>